--- a/testfolder/testBudget.xlsx
+++ b/testfolder/testBudget.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thebr\Documents\Finances\testfolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27E0F40A-119E-4A5B-AE02-328B2E24528B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{290E70D2-82CA-4990-B994-0FA9FA5043CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="6765" windowWidth="29040" windowHeight="15840" tabRatio="550" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,11 +31,11 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="3">'Monthly Savings'!$2:$3</definedName>
     <definedName name="Title1">#REF!</definedName>
     <definedName name="Title2">MonthlyIncome[[#Headers],[ITEM]]</definedName>
-    <definedName name="Title3">MonthlyExpenses[[#Headers],[ITEM]]</definedName>
+    <definedName name="Title3">MonthlyExpenses[[#Headers],[Category]]</definedName>
     <definedName name="Title4">Savings[[#Headers],[DATE]]</definedName>
     <definedName name="TitleRegion1..C8.1">#REF!</definedName>
-    <definedName name="TotalMonthlyExpenses">Summary!$C$6</definedName>
-    <definedName name="TotalMonthlyIncome">Summary!$C$4</definedName>
+    <definedName name="TotalMonthlyExpenses">OFFSET(#REF!,0,0,COUNT(#REF!),1)</definedName>
+    <definedName name="TotalMonthlyIncome">OFFSET(#REF!,0,0,COUNT(#REF!),1)</definedName>
     <definedName name="TotalMonthlySavings">Summary!$C$8</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
   <si>
     <t>Personal Budget</t>
   </si>
@@ -95,6 +95,12 @@
   </si>
   <si>
     <t>Previous Month's Expenses</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Amount</t>
   </si>
   <si>
     <t>Rent/mortgage</t>
@@ -317,7 +323,7 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -352,6 +358,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -520,7 +529,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-13F1-4598-A1AC-6BAD70C1156C}"/>
+                <c16:uniqueId val="{00000001-2FBD-404B-B1CC-2DEBEF64B8C7}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -540,7 +549,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-13F1-4598-A1AC-6BAD70C1156C}"/>
+                <c16:uniqueId val="{00000003-2FBD-404B-B1CC-2DEBEF64B8C7}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -583,8 +592,15 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="rect">
+                      <a:avLst/>
+                    </a:prstGeom>
+                  </c15:spPr>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-13F1-4598-A1AC-6BAD70C1156C}"/>
+                  <c16:uniqueId val="{00000003-2FBD-404B-B1CC-2DEBEF64B8C7}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -625,7 +641,13 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                </c15:spPr>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:val>
@@ -645,7 +667,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-13F1-4598-A1AC-6BAD70C1156C}"/>
+              <c16:uniqueId val="{00000004-2FBD-404B-B1CC-2DEBEF64B8C7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -735,7 +757,7 @@
             <c:numRef>
               <c:f>Summary!$C$4</c:f>
               <c:numCache>
-                <c:formatCode>"$"#,##0</c:formatCode>
+                <c:formatCode>"$"#,##0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -745,7 +767,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1BF4-4071-9308-967DB729F189}"/>
+              <c16:uniqueId val="{00000000-F09B-4032-A2B1-B51473465837}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -778,7 +800,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-1BF4-4071-9308-967DB729F189}"/>
+                <c16:uniqueId val="{00000002-F09B-4032-A2B1-B51473465837}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -794,7 +816,7 @@
             <c:numRef>
               <c:f>Summary!$C$6</c:f>
               <c:numCache>
-                <c:formatCode>"$"#,##0</c:formatCode>
+                <c:formatCode>"$"#,##0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -804,7 +826,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-1BF4-4071-9308-967DB729F189}"/>
+              <c16:uniqueId val="{00000003-F09B-4032-A2B1-B51473465837}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -897,7 +919,7 @@
             </a:ln>
           </c:spPr>
         </c:minorGridlines>
-        <c:numFmt formatCode="&quot;$&quot;#,##0" sourceLinked="1"/>
+        <c:numFmt formatCode="&quot;$&quot;#,##0.00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1078,8 +1100,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="MonthlyExpenses" displayName="MonthlyExpenses" ref="B3:C16" totalsRowShown="0" headerRowCellStyle="Heading 2">
   <autoFilter ref="B3:C16" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="ITEM" dataCellStyle="Item"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="AMOUNT" dataCellStyle="Amount"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Category" dataCellStyle="Item"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Amount" dataCellStyle="Amount"/>
   </tableColumns>
   <tableStyleInfo name="Personal budget table" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1089,8 +1111,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="MonthlyExpenses2" displayName="MonthlyExpenses2" ref="E3:F16" totalsRowShown="0" headerRowBorderDxfId="0" headerRowCellStyle="Heading 2">
   <autoFilter ref="E3:F16" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="ITEM" dataCellStyle="Item"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="AMOUNT" dataCellStyle="Amount"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Category" dataCellStyle="Item"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Amount" dataCellStyle="Amount"/>
   </tableColumns>
   <tableStyleInfo name="Personal budget table" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1317,7 +1339,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1328,8 +1350,8 @@
     <col min="4" max="4" width="0.83203125" hidden="1" customWidth="1"/>
     <col min="5" max="9" width="9" style="12" customWidth="1"/>
     <col min="10" max="10" width="2.58203125" style="12" customWidth="1"/>
-    <col min="11" max="16" width="9" style="12" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="12"/>
+    <col min="11" max="19" width="9" style="12" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" s="3" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1347,111 +1369,111 @@
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="2:9" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="13"/>
+      <c r="B3" s="14"/>
       <c r="C3" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="4"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
     </row>
     <row r="4" spans="2:9" s="11" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="14"/>
-      <c r="C4" s="5" t="e">
-        <f>SUM(MonthlyIncome[[#All],[AMOUNT]])</f>
+      <c r="B4" s="15"/>
+      <c r="C4" s="13" t="e">
+        <f ca="1">SUM(TotalMonthlyIncome)</f>
         <v>#REF!</v>
       </c>
       <c r="D4" s="5"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
     </row>
     <row r="5" spans="2:9" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="14"/>
+      <c r="B5" s="15"/>
       <c r="C5" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="7"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
     </row>
     <row r="6" spans="2:9" s="11" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="14"/>
-      <c r="C6" s="5" t="e">
-        <f>'Monthly Expenses'!C16</f>
+      <c r="B6" s="15"/>
+      <c r="C6" s="13" t="e">
+        <f ca="1">ABS(SUM(TotalMonthlyExpenses))</f>
         <v>#REF!</v>
       </c>
       <c r="D6" s="5"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
     </row>
     <row r="7" spans="2:9" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="14"/>
+      <c r="B7" s="15"/>
       <c r="C7" s="7" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="7"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
     </row>
     <row r="8" spans="2:9" s="11" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="14"/>
-      <c r="C8" s="5">
-        <f>SUM(Savings[[#All],[AMOUNT]])</f>
-        <v>0</v>
+      <c r="B8" s="15"/>
+      <c r="C8" s="13" t="e">
+        <f ca="1">C4-C6</f>
+        <v>#REF!</v>
       </c>
       <c r="D8" s="5"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
     </row>
     <row r="9" spans="2:9" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="14"/>
+      <c r="B9" s="15"/>
       <c r="C9" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="7"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
     </row>
     <row r="10" spans="2:9" s="11" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="14"/>
+      <c r="B10" s="15"/>
       <c r="C10" s="5" t="e">
-        <f>TotalMonthlyIncome-TotalMonthlyExpenses-TotalMonthlySavings</f>
+        <f ca="1">TotalMonthlyIncome-TotalMonthlyExpenses-TotalMonthlySavings</f>
         <v>#REF!</v>
       </c>
       <c r="D10" s="5"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
     </row>
     <row r="11" spans="2:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1501,8 +1523,8 @@
     <col min="1" max="1" width="2.58203125" style="12" customWidth="1"/>
     <col min="2" max="2" width="19.58203125" style="12" customWidth="1"/>
     <col min="3" max="3" width="15.58203125" customWidth="1"/>
-    <col min="4" max="9" width="9" style="12" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="12"/>
+    <col min="4" max="12" width="9" style="12" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="3" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1563,7 +1585,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:F15"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1574,8 +1596,8 @@
     <col min="4" max="4" width="9" style="12" customWidth="1"/>
     <col min="5" max="5" width="19.58203125" style="12" customWidth="1"/>
     <col min="6" max="6" width="15.58203125" style="12" customWidth="1"/>
-    <col min="7" max="12" width="9" style="12" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="12"/>
+    <col min="7" max="15" width="9" style="12" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="3" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1596,28 +1618,28 @@
     </row>
     <row r="3" spans="1:6" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
       <c r="B4" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C4" s="10">
         <v>1330</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F4" s="10">
         <v>1330</v>
@@ -1626,13 +1648,13 @@
     <row r="5" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
       <c r="B5" s="9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C5" s="10">
         <v>100</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F5" s="10">
         <v>100</v>
@@ -1641,13 +1663,13 @@
     <row r="6" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
       <c r="B6" s="9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C6" s="10">
         <v>0</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F6" s="10">
         <v>0</v>
@@ -1656,13 +1678,13 @@
     <row r="7" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
       <c r="B7" s="9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C7" s="10">
         <v>120</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F7" s="10">
         <v>120</v>
@@ -1671,13 +1693,13 @@
     <row r="8" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
       <c r="B8" s="9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C8" s="10">
         <v>400</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F8" s="10">
         <v>400</v>
@@ -1686,13 +1708,13 @@
     <row r="9" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
       <c r="B9" s="9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C9" s="10">
         <v>350</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F9" s="10">
         <v>350</v>
@@ -1701,13 +1723,13 @@
     <row r="10" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
       <c r="B10" s="9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C10" s="10">
         <v>120</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F10" s="10">
         <v>120</v>
@@ -1716,13 +1738,13 @@
     <row r="11" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
       <c r="B11" s="9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C11" s="10">
         <v>377</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F11" s="10">
         <v>377</v>
@@ -1731,13 +1753,13 @@
     <row r="12" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
       <c r="B12" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C12" s="10">
         <v>210</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F12" s="10">
         <v>210</v>
@@ -1746,13 +1768,13 @@
     <row r="13" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
       <c r="B13" s="9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C13" s="10">
         <v>0</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F13" s="10">
         <v>0</v>
@@ -1761,13 +1783,13 @@
     <row r="14" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
       <c r="B14" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" s="10">
         <v>41.5</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F14" s="10">
         <v>41.5</v>
@@ -1776,13 +1798,13 @@
     <row r="15" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
       <c r="B15" s="9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" s="10">
         <v>0</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F15" s="10">
         <v>0</v>
@@ -1790,14 +1812,14 @@
     </row>
     <row r="16" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C16" s="10" t="e">
         <f>ABS(#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F16" s="10"/>
     </row>
@@ -1839,8 +1861,8 @@
     <col min="1" max="1" width="2.58203125" style="12" customWidth="1"/>
     <col min="2" max="2" width="19.58203125" style="12" customWidth="1"/>
     <col min="3" max="3" width="15.58203125" customWidth="1"/>
-    <col min="4" max="9" width="9" style="12" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="12"/>
+    <col min="4" max="12" width="9" style="12" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3" s="3" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1851,12 +1873,12 @@
     </row>
     <row r="2" spans="2:3" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="2:3" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>9</v>
@@ -1864,7 +1886,7 @@
     </row>
     <row r="4" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C4" s="10">
         <v>0</v>
@@ -1872,7 +1894,7 @@
     </row>
     <row r="5" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C5" s="10">
         <v>0</v>
@@ -1880,7 +1902,7 @@
     </row>
     <row r="6" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C6" s="10">
         <v>0</v>
@@ -1924,24 +1946,24 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="e">
-        <f>MIN(1,1-B5)</f>
+        <f ca="1">MIN(1,1-B5)</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="e">
-        <f>MIN(TotalMonthlyExpenses/TotalMonthlyIncome,1)</f>
+        <f ca="1">MIN(TotalMonthlyExpenses/TotalMonthlyIncome,1)</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" t="e">
-        <f>(TotalMonthlyExpenses/TotalMonthlyIncome)&gt;1</f>
+        <f ca="1">(TotalMonthlyExpenses/TotalMonthlyIncome)&gt;1</f>
         <v>#REF!</v>
       </c>
     </row>

--- a/testfolder/testBudget.xlsx
+++ b/testfolder/testBudget.xlsx
@@ -5,19 +5,19 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thebr\Documents\Finances\testfolder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thebr\Documents\Finances\testfolder - Copy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{290E70D2-82CA-4990-B994-0FA9FA5043CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{847A3BDA-4788-44F0-8BE7-D0B15A1AE121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="6765" windowWidth="29040" windowHeight="15840" tabRatio="550" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="6765" windowWidth="29040" windowHeight="15840" tabRatio="550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
-    <sheet name="Monthly Income" sheetId="2" r:id="rId2"/>
-    <sheet name="Monthly Expenses" sheetId="3" r:id="rId3"/>
-    <sheet name="Monthly Savings" sheetId="4" r:id="rId4"/>
-    <sheet name="Chart Data" sheetId="5" state="hidden" r:id="rId5"/>
+    <sheet name="Monthly Expenses" sheetId="2" r:id="rId2"/>
+    <sheet name="Chart Data" sheetId="3" state="hidden" r:id="rId3"/>
+    <sheet name="importtest" sheetId="4" r:id="rId4"/>
+    <sheet name="categoryvalues" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="BudgetTitle">Summary!$B$1</definedName>
@@ -26,16 +26,14 @@
     <definedName name="ColumnTitleRegion3..C8.1">Summary!$C$7</definedName>
     <definedName name="ColumnTitleRegion4..C10.1">Summary!$C$9</definedName>
     <definedName name="Percentage_of_Income_Spent">'Chart Data'!$B$5</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="2">'Monthly Expenses'!$2:$3</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">'Monthly Income'!$2:$3</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="3">'Monthly Savings'!$2:$3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">'Monthly Expenses'!$2:$3</definedName>
     <definedName name="Title1">#REF!</definedName>
-    <definedName name="Title2">MonthlyIncome[[#Headers],[ITEM]]</definedName>
+    <definedName name="Title2">#REF!</definedName>
     <definedName name="Title3">MonthlyExpenses[[#Headers],[Category]]</definedName>
-    <definedName name="Title4">Savings[[#Headers],[DATE]]</definedName>
+    <definedName name="Title4">#REF!</definedName>
     <definedName name="TitleRegion1..C8.1">#REF!</definedName>
-    <definedName name="TotalMonthlyExpenses">OFFSET(#REF!,0,0,COUNT(#REF!),1)</definedName>
-    <definedName name="TotalMonthlyIncome">OFFSET(#REF!,0,0,COUNT(#REF!),1)</definedName>
+    <definedName name="TotalMonthlyExpenses">OFFSET(importtest!$E$2,0,0,COUNT(importtest!$E$2:$E$200),1)</definedName>
+    <definedName name="TotalMonthlyIncome">OFFSET(importtest!$F$2,0,0,COUNT(importtest!$F$2:$F$200),1)</definedName>
     <definedName name="TotalMonthlySavings">Summary!$C$8</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -56,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>Personal Budget</t>
   </si>
@@ -79,18 +77,6 @@
     <t>CASH BALANCE</t>
   </si>
   <si>
-    <t>Monthly Income</t>
-  </si>
-  <si>
-    <t>ITEM</t>
-  </si>
-  <si>
-    <t>AMOUNT</t>
-  </si>
-  <si>
-    <t>Income Source 1</t>
-  </si>
-  <si>
     <t>This Month's Expenses</t>
   </si>
   <si>
@@ -103,55 +89,7 @@
     <t>Amount</t>
   </si>
   <si>
-    <t>Rent/mortgage</t>
-  </si>
-  <si>
-    <t>Electric</t>
-  </si>
-  <si>
-    <t>Gas</t>
-  </si>
-  <si>
-    <t>Cell phone</t>
-  </si>
-  <si>
-    <t>Groceries</t>
-  </si>
-  <si>
-    <t>Car payment</t>
-  </si>
-  <si>
-    <t>Auto expenses</t>
-  </si>
-  <si>
-    <t>Credit cards</t>
-  </si>
-  <si>
-    <t>Auto Insurance</t>
-  </si>
-  <si>
-    <t>Personal care</t>
-  </si>
-  <si>
-    <t>Entertainment</t>
-  </si>
-  <si>
-    <t>Miscellaneous</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total </t>
-  </si>
-  <si>
-    <t>Monthly Savings</t>
-  </si>
-  <si>
-    <t>DATE</t>
-  </si>
-  <si>
-    <t>Date</t>
+    <t>WIP</t>
   </si>
   <si>
     <t>CHART DATA</t>
@@ -165,7 +103,7 @@
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="3" tint="0.24994659260841701"/>
@@ -250,6 +188,23 @@
       <family val="2"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Century Gothic"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Century Gothic"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color rgb="FFFF0000"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -265,7 +220,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -291,6 +246,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -323,7 +308,7 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -338,28 +323,34 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="7" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -505,102 +496,215 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-2FBD-404B-B1CC-2DEBEF64B8C7}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-2FBD-404B-B1CC-2DEBEF64B8C7}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="1"/>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="4.953560371517024E-2"/>
+                  <c:y val="-0.16165085905962476"/>
+                </c:manualLayout>
+              </c:layout>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
                   <a:noFill/>
-                  <a:prstDash val="solid"/>
                 </a:ln>
+                <a:effectLst/>
               </c:spPr>
               <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900"/>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.29349845201238384"/>
+                      <c:h val="0.13676708031304316"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-CA25-4706-A671-11D48430B081}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="7.4303405572755415E-2"/>
+                  <c:y val="-0.11693891931972857"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-CA25-4706-A671-11D48430B081}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.2043343653250774"/>
+                  <c:y val="-0.14101444377101205"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="800"/>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.26414860681114549"/>
+                      <c:h val="0.17891654655918465"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-CA25-4706-A671-11D48430B081}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="9.8733169189764592E-3"/>
+                  <c:y val="-6.8787599599840323E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
                   <a:noAutofit/>
                 </a:bodyPr>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr sz="3600" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx2">
-                          <a:lumMod val="75000"/>
-                          <a:lumOff val="25000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
+                    <a:defRPr sz="700"/>
                   </a:pPr>
                   <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
               <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                    <a:prstGeom prst="rect">
-                      <a:avLst/>
-                    </a:prstGeom>
-                  </c15:spPr>
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.22498915189780844"/>
+                      <c:h val="0.13588990300948456"/>
+                    </c:manualLayout>
+                  </c15:layout>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-2FBD-404B-B1CC-2DEBEF64B8C7}"/>
+                  <c16:uniqueId val="{00000007-CA25-4706-A671-11D48430B081}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.21052631578947367"/>
+                  <c:y val="-0.11349953933973654"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-CA25-4706-A671-11D48430B081}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.1217750257997936"/>
+                  <c:y val="-0.16852961901960881"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.2198968008255934"/>
+                      <c:h val="9.4617343249580363E-2"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-CA25-4706-A671-11D48430B081}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -608,66 +712,55 @@
               <a:noFill/>
               <a:ln>
                 <a:noFill/>
-                <a:prstDash val="solid"/>
               </a:ln>
+              <a:effectLst/>
             </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="3600" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx2">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
             <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
+            <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <a:prstGeom prst="rect">
-                    <a:avLst/>
-                  </a:prstGeom>
-                </c15:spPr>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Monthly Expenses'!$B$4:$B$14</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Monthly Expenses'!$B$4:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Chart Data'!$B$4:$B$5</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Monthly Expenses'!$C$4:$C$14</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Monthly Expenses'!$C$4:$C$13</c:f>
               <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
+                <c:formatCode>"$"#,##0.00</c:formatCode>
+                <c:ptCount val="10"/>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-2FBD-404B-B1CC-2DEBEF64B8C7}"/>
+              <c16:uniqueId val="{00000001-CA25-4706-A671-11D48430B081}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -678,7 +771,7 @@
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="0"/>
+          <c:showLeaderLines val="1"/>
         </c:dLbls>
         <c:firstSliceAng val="0"/>
         <c:holeSize val="55"/>
@@ -767,7 +860,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F09B-4032-A2B1-B51473465837}"/>
+              <c16:uniqueId val="{00000000-CCAD-4435-93FA-3A15531BA66F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -800,7 +893,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-F09B-4032-A2B1-B51473465837}"/>
+                <c16:uniqueId val="{00000002-CCAD-4435-93FA-3A15531BA66F}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -826,7 +919,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-F09B-4032-A2B1-B51473465837}"/>
+              <c16:uniqueId val="{00000003-CCAD-4435-93FA-3A15531BA66F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1019,9 +1112,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>6350</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1055,9 +1148,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
+      <xdr:colOff>577850</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>136814</xdr:rowOff>
+      <xdr:rowOff>139989</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1086,44 +1179,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="MonthlyIncome" displayName="MonthlyIncome" ref="B3:C4" totalsRowShown="0" headerRowCellStyle="Heading 2">
-  <autoFilter ref="B3:C4" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="MonthlyExpenses" displayName="MonthlyExpenses" ref="B3:C16" totalsRowShown="0" headerRowCellStyle="Heading 2">
+  <autoFilter ref="B3:C16" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ITEM" dataCellStyle="Item"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="AMOUNT" dataCellStyle="Amount"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Category" dataCellStyle="Item"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Amount" dataCellStyle="Amount"/>
   </tableColumns>
   <tableStyleInfo name="Personal budget table" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="MonthlyExpenses" displayName="MonthlyExpenses" ref="B3:C16" totalsRowShown="0" headerRowCellStyle="Heading 2">
-  <autoFilter ref="B3:C16" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="MonthlyExpenses2" displayName="MonthlyExpenses2" ref="E3:F16" totalsRowShown="0" headerRowBorderDxfId="0" headerRowCellStyle="Heading 2">
+  <autoFilter ref="E3:F16" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Category" dataCellStyle="Item"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Amount" dataCellStyle="Amount"/>
-  </tableColumns>
-  <tableStyleInfo name="Personal budget table" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="MonthlyExpenses2" displayName="MonthlyExpenses2" ref="E3:F16" totalsRowShown="0" headerRowBorderDxfId="0" headerRowCellStyle="Heading 2">
-  <autoFilter ref="E3:F16" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Category" dataCellStyle="Item"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Amount" dataCellStyle="Amount"/>
-  </tableColumns>
-  <tableStyleInfo name="Personal budget table" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Savings" displayName="Savings" ref="B3:C6" totalsRowShown="0" headerRowCellStyle="Heading 2">
-  <autoFilter ref="B3:C6" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="DATE" dataCellStyle="Date"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="AMOUNT" dataCellStyle="Amount"/>
   </tableColumns>
   <tableStyleInfo name="Personal budget table" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1338,8 +1409,8 @@
   </sheetPr>
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1350,8 +1421,8 @@
     <col min="4" max="4" width="0.83203125" hidden="1" customWidth="1"/>
     <col min="5" max="9" width="9" style="12" customWidth="1"/>
     <col min="10" max="10" width="2.58203125" style="12" customWidth="1"/>
-    <col min="11" max="19" width="9" style="12" customWidth="1"/>
-    <col min="20" max="16384" width="9" style="12"/>
+    <col min="11" max="23" width="9" style="12" customWidth="1"/>
+    <col min="24" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" s="3" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1369,111 +1440,111 @@
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="2:9" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="14"/>
+      <c r="B3" s="16"/>
       <c r="C3" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="4"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
     </row>
     <row r="4" spans="2:9" s="11" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="15"/>
-      <c r="C4" s="13" t="e">
+      <c r="B4" s="17"/>
+      <c r="C4" s="9" t="e">
         <f ca="1">SUM(TotalMonthlyIncome)</f>
         <v>#REF!</v>
       </c>
       <c r="D4" s="5"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
     </row>
     <row r="5" spans="2:9" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="15"/>
-      <c r="C5" s="7" t="s">
+      <c r="B5" s="17"/>
+      <c r="C5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
     </row>
     <row r="6" spans="2:9" s="11" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="15"/>
-      <c r="C6" s="13" t="e">
+      <c r="B6" s="17"/>
+      <c r="C6" s="9" t="e">
         <f ca="1">ABS(SUM(TotalMonthlyExpenses))</f>
         <v>#REF!</v>
       </c>
       <c r="D6" s="5"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
     </row>
     <row r="7" spans="2:9" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="15"/>
-      <c r="C7" s="7" t="s">
+      <c r="B7" s="17"/>
+      <c r="C7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
     </row>
     <row r="8" spans="2:9" s="11" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="15"/>
-      <c r="C8" s="13" t="e">
+      <c r="B8" s="17"/>
+      <c r="C8" s="9" t="e">
         <f ca="1">C4-C6</f>
         <v>#REF!</v>
       </c>
       <c r="D8" s="5"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
     </row>
     <row r="9" spans="2:9" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="15"/>
-      <c r="C9" s="7" t="s">
+      <c r="B9" s="17"/>
+      <c r="C9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
     </row>
     <row r="10" spans="2:9" s="11" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="15"/>
-      <c r="C10" s="5" t="e">
+      <c r="B10" s="17"/>
+      <c r="C10" s="15" t="e">
         <f ca="1">TotalMonthlyIncome-TotalMonthlyExpenses-TotalMonthlySavings</f>
         <v>#REF!</v>
       </c>
       <c r="D10" s="5"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
     </row>
     <row r="11" spans="2:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1498,86 +1569,16 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.4" right="0.4" top="0.4" bottom="0.4" header="0.25" footer="0.25"/>
-  <pageSetup scale="76" fitToHeight="0" orientation="portrait"/>
+  <pageSetup scale="76" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter differentFirst="1">
     <oddFooter>&amp;CPage &amp;P of &amp;N</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
-    <tabColor theme="4" tint="-0.499984740745262"/>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="2.58203125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="19.58203125" style="12" customWidth="1"/>
-    <col min="3" max="3" width="15.58203125" customWidth="1"/>
-    <col min="4" max="12" width="9" style="12" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="12"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" s="3" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="3" t="str">
-        <f>BudgetTitle</f>
-        <v>Personal Budget</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="10" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="5">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Monthly Income in this worksheet" sqref="A1" xr:uid="{00000000-0002-0000-0100-000000000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter income Items in this column under this heading. Use heading filters to find specific entries" sqref="B3" xr:uid="{00000000-0002-0000-0100-000001000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Amount in this column under this heading" sqref="C3" xr:uid="{00000000-0002-0000-0100-000002000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Title is automatically updated in this cell" sqref="B1" xr:uid="{00000000-0002-0000-0100-000003000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Monthly Income details in table below" sqref="B2" xr:uid="{00000000-0002-0000-0100-000004000000}"/>
-  </dataValidations>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.4" right="0.4" top="0.4" bottom="0.4" header="0.25" footer="0.25"/>
-  <pageSetup fitToHeight="0" orientation="portrait"/>
-  <headerFooter differentFirst="1">
-    <oddFooter>&amp;CPage &amp;P of &amp;N</oddFooter>
-  </headerFooter>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
     <pageSetUpPr fitToPage="1"/>
@@ -1585,19 +1586,19 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.58203125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="19.58203125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="26" style="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.58203125" style="12" customWidth="1"/>
     <col min="4" max="4" width="9" style="12" customWidth="1"/>
     <col min="5" max="5" width="19.58203125" style="12" customWidth="1"/>
     <col min="6" max="6" width="15.58203125" style="12" customWidth="1"/>
-    <col min="7" max="15" width="9" style="12" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="12"/>
+    <col min="7" max="19" width="9" style="12" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="3" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1608,228 +1609,127 @@
     </row>
     <row r="2" spans="1:6" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
-      <c r="B4" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="10">
-        <v>1330</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="10">
-        <v>1330</v>
-      </c>
+      <c r="B4" s="14"/>
+      <c r="C4" s="8"/>
+      <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
-      <c r="B5" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="10">
-        <v>100</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="10">
-        <v>100</v>
-      </c>
+      <c r="B5" s="14"/>
+      <c r="C5" s="8"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
-      <c r="B6" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="10">
-        <v>0</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="10">
-        <v>0</v>
-      </c>
+      <c r="B6" s="14"/>
+      <c r="C6" s="8"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
-      <c r="B7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="10">
-        <v>120</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="10">
-        <v>120</v>
-      </c>
+      <c r="B7" s="14"/>
+      <c r="C7" s="8"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="8"/>
     </row>
     <row r="8" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
-      <c r="B8" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="10">
-        <v>400</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="10">
-        <v>400</v>
-      </c>
+      <c r="B8" s="14"/>
+      <c r="C8" s="8"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="8"/>
     </row>
     <row r="9" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
-      <c r="B9" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="10">
-        <v>350</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="10">
-        <v>350</v>
-      </c>
+      <c r="B9" s="14"/>
+      <c r="C9" s="8"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="8"/>
     </row>
     <row r="10" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
-      <c r="B10" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="10">
-        <v>120</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="10">
-        <v>120</v>
-      </c>
+      <c r="B10" s="14"/>
+      <c r="C10" s="8"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="8"/>
     </row>
     <row r="11" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
-      <c r="B11" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="10">
-        <v>377</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="10">
-        <v>377</v>
-      </c>
+      <c r="B11" s="14"/>
+      <c r="C11" s="8"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="8"/>
     </row>
     <row r="12" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
-      <c r="B12" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="10">
-        <v>210</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="10">
-        <v>210</v>
-      </c>
+      <c r="B12" s="14"/>
+      <c r="C12" s="8"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="8"/>
     </row>
     <row r="13" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
-      <c r="B13" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="10">
-        <v>0</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="10">
-        <v>0</v>
-      </c>
+      <c r="B13" s="14"/>
+      <c r="C13" s="8"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="8"/>
     </row>
     <row r="14" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
-      <c r="B14" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="10">
-        <v>41.5</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F14" s="10">
-        <v>41.5</v>
-      </c>
+      <c r="B14" s="14"/>
+      <c r="C14" s="8"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="8"/>
     </row>
     <row r="15" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
-      <c r="B15" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="10">
-        <v>0</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" s="10">
-        <v>0</v>
-      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="8"/>
     </row>
     <row r="16" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="10" t="e">
-        <f>ABS(#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F16" s="10"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="8"/>
     </row>
   </sheetData>
   <dataValidations count="5">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Monthly Expenses in this worksheet" sqref="A1" xr:uid="{00000000-0002-0000-0200-000000000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter expense Items in this column under this heading. Use heading filters to find specific entries" sqref="B3 E3" xr:uid="{00000000-0002-0000-0200-000001000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Amount in this column under this heading" sqref="C3 F3" xr:uid="{00000000-0002-0000-0200-000002000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Title is automatically updated in this cell" sqref="B1" xr:uid="{00000000-0002-0000-0200-000003000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Monthly Expenses in table below" sqref="B2 E2" xr:uid="{00000000-0002-0000-0200-000004000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Monthly Expenses in this worksheet" sqref="A1" xr:uid="{00000000-0002-0000-0100-000000000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter expense Items in this column under this heading. Use heading filters to find specific entries" sqref="B3 E3" xr:uid="{00000000-0002-0000-0100-000001000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Amount in this column under this heading" sqref="C3 F3" xr:uid="{00000000-0002-0000-0100-000002000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Title is automatically updated in this cell" sqref="B1" xr:uid="{00000000-0002-0000-0100-000003000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Monthly Expenses in table below" sqref="B2 E2" xr:uid="{00000000-0002-0000-0100-000004000000}"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.4" right="0.4" top="0.4" bottom="0.4" header="0.25" footer="0.25"/>
@@ -1844,92 +1744,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr>
-    <tabColor theme="6"/>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="B1:C6"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="2.58203125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="19.58203125" style="12" customWidth="1"/>
-    <col min="3" max="3" width="15.58203125" customWidth="1"/>
-    <col min="4" max="12" width="9" style="12" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="12"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:3" s="3" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="3" t="str">
-        <f>BudgetTitle</f>
-        <v>Personal Budget</v>
-      </c>
-    </row>
-    <row r="2" spans="2:3" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="10">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="5">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Monthly Savings in this worksheet" sqref="A1" xr:uid="{00000000-0002-0000-0300-000000000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter savngs deposit Date in this column under this heading. Use heading filters to find specific entries" sqref="B3" xr:uid="{00000000-0002-0000-0300-000001000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Amount in this column under this heading" sqref="C3" xr:uid="{00000000-0002-0000-0300-000002000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Title is automatically updated in this cell" sqref="B1" xr:uid="{00000000-0002-0000-0300-000003000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Monthly Savings in table below" sqref="B2" xr:uid="{00000000-0002-0000-0300-000004000000}"/>
-  </dataValidations>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.4" right="0.4" top="0.4" bottom="0.4" header="0.25" footer="0.25"/>
-  <pageSetup fitToHeight="0" orientation="portrait"/>
-  <headerFooter differentFirst="1">
-    <oddFooter>&amp;CPage &amp;P of &amp;N</oddFooter>
-  </headerFooter>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet2">
     <tabColor theme="1" tint="0.249977111117893"/>
   </sheetPr>
@@ -1946,7 +1762,7 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
@@ -1971,4 +1787,302 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:H81"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" ht="14" x14ac:dyDescent="0.25">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+    </row>
+    <row r="2" spans="1:8" ht="14" x14ac:dyDescent="0.25">
+      <c r="A2" s="13"/>
+    </row>
+    <row r="3" spans="1:8" ht="14" x14ac:dyDescent="0.25">
+      <c r="A3" s="13"/>
+    </row>
+    <row r="4" spans="1:8" ht="14" x14ac:dyDescent="0.25">
+      <c r="A4" s="13"/>
+    </row>
+    <row r="5" spans="1:8" ht="14" x14ac:dyDescent="0.25">
+      <c r="A5" s="13"/>
+    </row>
+    <row r="6" spans="1:8" ht="14" x14ac:dyDescent="0.25">
+      <c r="A6" s="13"/>
+    </row>
+    <row r="7" spans="1:8" ht="14" x14ac:dyDescent="0.25">
+      <c r="A7" s="13"/>
+    </row>
+    <row r="8" spans="1:8" ht="14" x14ac:dyDescent="0.25">
+      <c r="A8" s="13"/>
+    </row>
+    <row r="9" spans="1:8" ht="14" x14ac:dyDescent="0.25">
+      <c r="A9" s="13"/>
+    </row>
+    <row r="10" spans="1:8" ht="14" x14ac:dyDescent="0.25">
+      <c r="A10" s="13"/>
+    </row>
+    <row r="11" spans="1:8" ht="14" x14ac:dyDescent="0.25">
+      <c r="A11" s="13"/>
+    </row>
+    <row r="12" spans="1:8" ht="14" x14ac:dyDescent="0.25">
+      <c r="A12" s="13"/>
+    </row>
+    <row r="13" spans="1:8" ht="14" x14ac:dyDescent="0.25">
+      <c r="A13" s="13"/>
+    </row>
+    <row r="14" spans="1:8" ht="14" x14ac:dyDescent="0.25">
+      <c r="A14" s="13"/>
+    </row>
+    <row r="15" spans="1:8" ht="14" x14ac:dyDescent="0.25">
+      <c r="A15" s="13"/>
+    </row>
+    <row r="16" spans="1:8" ht="14" x14ac:dyDescent="0.25">
+      <c r="A16" s="13"/>
+    </row>
+    <row r="17" spans="1:1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A17" s="13"/>
+    </row>
+    <row r="18" spans="1:1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A18" s="13"/>
+    </row>
+    <row r="19" spans="1:1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A19" s="13"/>
+    </row>
+    <row r="20" spans="1:1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A20" s="13"/>
+    </row>
+    <row r="21" spans="1:1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A21" s="13"/>
+    </row>
+    <row r="22" spans="1:1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A22" s="13"/>
+    </row>
+    <row r="23" spans="1:1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A23" s="13"/>
+    </row>
+    <row r="24" spans="1:1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A24" s="13"/>
+    </row>
+    <row r="25" spans="1:1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A25" s="13"/>
+    </row>
+    <row r="26" spans="1:1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A26" s="13"/>
+    </row>
+    <row r="27" spans="1:1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A27" s="13"/>
+    </row>
+    <row r="28" spans="1:1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A28" s="13"/>
+    </row>
+    <row r="29" spans="1:1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A29" s="13"/>
+    </row>
+    <row r="30" spans="1:1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A30" s="13"/>
+    </row>
+    <row r="31" spans="1:1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A31" s="13"/>
+    </row>
+    <row r="32" spans="1:1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A32" s="13"/>
+    </row>
+    <row r="33" spans="1:1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A33" s="13"/>
+    </row>
+    <row r="34" spans="1:1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A34" s="13"/>
+    </row>
+    <row r="35" spans="1:1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A35" s="13"/>
+    </row>
+    <row r="36" spans="1:1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A36" s="13"/>
+    </row>
+    <row r="37" spans="1:1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A37" s="13"/>
+    </row>
+    <row r="38" spans="1:1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A38" s="13"/>
+    </row>
+    <row r="39" spans="1:1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A39" s="13"/>
+    </row>
+    <row r="40" spans="1:1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A40" s="13"/>
+    </row>
+    <row r="41" spans="1:1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A41" s="13"/>
+    </row>
+    <row r="42" spans="1:1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A42" s="13"/>
+    </row>
+    <row r="43" spans="1:1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A43" s="13"/>
+    </row>
+    <row r="44" spans="1:1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A44" s="13"/>
+    </row>
+    <row r="45" spans="1:1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A45" s="13"/>
+    </row>
+    <row r="46" spans="1:1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A46" s="13"/>
+    </row>
+    <row r="47" spans="1:1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A47" s="13"/>
+    </row>
+    <row r="48" spans="1:1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A48" s="13"/>
+    </row>
+    <row r="49" spans="1:1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A49" s="13"/>
+    </row>
+    <row r="50" spans="1:1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A50" s="13"/>
+    </row>
+    <row r="51" spans="1:1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A51" s="13"/>
+    </row>
+    <row r="52" spans="1:1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A52" s="13"/>
+    </row>
+    <row r="53" spans="1:1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A53" s="13"/>
+    </row>
+    <row r="54" spans="1:1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A54" s="13"/>
+    </row>
+    <row r="55" spans="1:1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A55" s="13"/>
+    </row>
+    <row r="56" spans="1:1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A56" s="13"/>
+    </row>
+    <row r="57" spans="1:1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A57" s="13"/>
+    </row>
+    <row r="58" spans="1:1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A58" s="13"/>
+    </row>
+    <row r="59" spans="1:1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A59" s="13"/>
+    </row>
+    <row r="60" spans="1:1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A60" s="13"/>
+    </row>
+    <row r="61" spans="1:1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A61" s="13"/>
+    </row>
+    <row r="62" spans="1:1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A62" s="13"/>
+    </row>
+    <row r="63" spans="1:1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A63" s="13"/>
+    </row>
+    <row r="64" spans="1:1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A64" s="13"/>
+    </row>
+    <row r="65" spans="1:1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A65" s="13"/>
+    </row>
+    <row r="66" spans="1:1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A66" s="13"/>
+    </row>
+    <row r="67" spans="1:1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A67" s="13"/>
+    </row>
+    <row r="68" spans="1:1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A68" s="13"/>
+    </row>
+    <row r="69" spans="1:1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A69" s="13"/>
+    </row>
+    <row r="70" spans="1:1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A70" s="13"/>
+    </row>
+    <row r="71" spans="1:1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A71" s="13"/>
+    </row>
+    <row r="72" spans="1:1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A72" s="13"/>
+    </row>
+    <row r="73" spans="1:1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A73" s="13"/>
+    </row>
+    <row r="74" spans="1:1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A74" s="13"/>
+    </row>
+    <row r="75" spans="1:1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A75" s="13"/>
+    </row>
+    <row r="76" spans="1:1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A76" s="13"/>
+    </row>
+    <row r="77" spans="1:1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A77" s="13"/>
+    </row>
+    <row r="78" spans="1:1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A78" s="13"/>
+    </row>
+    <row r="79" spans="1:1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A79" s="13"/>
+    </row>
+    <row r="80" spans="1:1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A80" s="13"/>
+    </row>
+    <row r="81" spans="1:1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A81" s="13"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10"/>
+      <c r="B1" s="10"/>
+    </row>
+    <row r="2" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10"/>
+    </row>
+    <row r="3" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10"/>
+    </row>
+    <row r="4" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10"/>
+    </row>
+    <row r="5" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10"/>
+    </row>
+    <row r="6" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>